--- a/실무_엑셀_예제_파일/Chapter08/08-003.xlsx
+++ b/실무_엑셀_예제_파일/Chapter08/08-003.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715BB25E-B95A-48C4-A9E4-E07240E04866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C3D355-D7D3-4C41-BB12-3A9A93A9F5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2565" windowWidth="16440" windowHeight="29040" xr2:uid="{57FEA6E6-8E85-4A83-8E69-E1EF772522FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{57FEA6E6-8E85-4A83-8E69-E1EF772522FC}"/>
   </bookViews>
   <sheets>
     <sheet name="혼합차트" sheetId="4" r:id="rId1"/>
@@ -260,6 +260,1487 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>혼합차트!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>샌드위치</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:tint val="48000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>혼합차트!$C$4:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>월</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>화</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>수</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>목</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>금</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>토</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>혼합차트!$C$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>97200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>572000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>428000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DA5-4167-BF52-0E4D9EA82699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>혼합차트!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>생과일주스</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>혼합차트!$C$4:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>월</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>화</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>수</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>목</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>금</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>토</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>혼합차트!$C$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>194677.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>212250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>427000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DA5-4167-BF52-0E4D9EA82699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>혼합차트!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>허브티</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:tint val="83000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>혼합차트!$C$4:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>월</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>화</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>수</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>목</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>금</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>토</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>혼합차트!$C$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>369104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>316800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>323200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>429000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2DA5-4167-BF52-0E4D9EA82699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>혼합차트!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>핫초코</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>혼합차트!$C$4:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>월</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>화</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>수</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>목</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>금</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>토</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>혼합차트!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>378100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>273600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>281808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>363850</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>272000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>453150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2DA5-4167-BF52-0E4D9EA82699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>혼합차트!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>카페라떼</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:shade val="82000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>혼합차트!$C$4:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>월</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>화</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>수</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>목</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>금</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>토</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>혼합차트!$C$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>428000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>364000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>327600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>425880</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>329000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>639200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>517400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2DA5-4167-BF52-0E4D9EA82699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>혼합차트!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>아메리카노</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>혼합차트!$C$4:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>월</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>화</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>수</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>목</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>금</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>토</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>혼합차트!$C$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1120000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>494400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>435072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>435072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>972000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>827000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>847200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2DA5-4167-BF52-0E4D9EA82699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2125597296"/>
+        <c:axId val="2125607376"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>혼합차트!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>합계</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>혼합차트!$C$4:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>월</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>화</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>수</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>목</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>금</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>토</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>일</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>혼합차트!$C$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2478300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1726350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1450431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1802445.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2488500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3060400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2899750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2DA5-4167-BF52-0E4D9EA82699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2125597296"/>
+        <c:axId val="2125607376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2125597296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2125607376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2125607376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125597296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>187740</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4969</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243A1C35-29AB-5EA9-73DC-2DABC0B8C67F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,16 +2042,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F029C7E3-C2DA-420C-967D-E36ED6B9778D}">
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:9" ht="27.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
@@ -582,8 +2065,8 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:9" s="1" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:9" s="1" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -609,7 +2092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -635,7 +2118,7 @@
         <v>428000</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -661,7 +2144,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -687,7 +2170,7 @@
         <v>429000</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
@@ -713,7 +2196,7 @@
         <v>453150</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
@@ -739,7 +2222,7 @@
         <v>517400</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -765,7 +2248,7 @@
         <v>847200</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
@@ -804,5 +2287,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>